--- a/rsc/DB설계서.xlsx
+++ b/rsc/DB설계서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\PYSERVER\src\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29198E32-160D-4FF1-8E89-DA7DDB107CBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1920" windowWidth="21300" windowHeight="10224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1920" windowWidth="21300" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE정보" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="204">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -784,13 +783,17 @@
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float(10,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -931,10 +934,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,31 +1219,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="29" customWidth="1" outlineLevel="2"/>
     <col min="6" max="6" width="28.5" customWidth="1" outlineLevel="2"/>
-    <col min="7" max="7" width="7.59765625" style="4" customWidth="1" outlineLevel="2"/>
+    <col min="7" max="7" width="7.625" style="4" customWidth="1" outlineLevel="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1268,7 +1271,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>181</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>182</v>
@@ -1306,7 +1309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>179</v>
@@ -1320,7 +1323,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
         <v>184</v>
@@ -1334,7 +1337,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>183</v>
@@ -1348,7 +1351,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>185</v>
@@ -1364,7 +1367,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
@@ -1380,7 +1383,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>178</v>
@@ -1396,7 +1399,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1412,7 +1415,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>186</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>187</v>
@@ -1450,7 +1453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="8" t="s">
         <v>190</v>
@@ -1468,7 +1471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>188</v>
@@ -1482,7 +1485,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
         <v>185</v>
@@ -1498,7 +1501,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="2" t="s">
         <v>6</v>
@@ -1514,7 +1517,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
         <v>178</v>
@@ -1530,7 +1533,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -1546,7 +1549,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>189</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="2" t="s">
         <v>190</v>
@@ -1584,7 +1587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -1598,7 +1601,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="3" t="s">
         <v>191</v>
@@ -1612,7 +1615,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
         <v>192</v>
@@ -1626,7 +1629,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
         <v>185</v>
@@ -1642,7 +1645,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -1658,7 +1661,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="2" t="s">
         <v>178</v>
@@ -1674,7 +1677,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="2" t="s">
         <v>7</v>
@@ -1690,7 +1693,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>193</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="2" t="s">
         <v>194</v>
@@ -1728,7 +1731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="1" t="s">
         <v>197</v>
@@ -1742,7 +1745,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="3" t="s">
         <v>198</v>
@@ -1756,7 +1759,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="1" t="s">
         <v>195</v>
@@ -1770,13 +1773,13 @@
       <c r="F34" s="3"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
@@ -1784,7 +1787,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="1" t="s">
         <v>200</v>
@@ -1796,7 +1799,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="1" t="s">
         <v>97</v>
@@ -1812,7 +1815,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="1" t="s">
         <v>202</v>
@@ -1826,7 +1829,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
@@ -1842,7 +1845,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
       <c r="C40" s="2" t="s">
         <v>178</v>
@@ -1858,7 +1861,7 @@
       </c>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
       <c r="C41" s="2" t="s">
         <v>7</v>
@@ -1894,24 +1897,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="29" customWidth="1" outlineLevel="2"/>
     <col min="6" max="6" width="28.5" customWidth="1" outlineLevel="2"/>
-    <col min="7" max="7" width="7.59765625" style="4" customWidth="1" outlineLevel="2"/>
+    <col min="7" max="7" width="7.625" style="4" customWidth="1" outlineLevel="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
@@ -1931,15 +1934,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>76</v>
       </c>
@@ -1959,8 +1962,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="13"/>
+    <row r="5" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>78</v>
       </c>
@@ -1977,8 +1980,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="13"/>
+    <row r="6" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1993,8 +1996,8 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="13"/>
+    <row r="7" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
@@ -2009,8 +2012,8 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="13"/>
+    <row r="8" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2025,8 +2028,8 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="13"/>
+    <row r="9" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
@@ -2041,8 +2044,8 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="12"/>
+    <row r="10" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2057,7 +2060,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>62</v>
       </c>
@@ -2077,8 +2080,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="13"/>
+    <row r="12" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2095,8 +2098,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="13"/>
+    <row r="13" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
@@ -2113,8 +2116,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="13"/>
+    <row r="14" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
@@ -2129,8 +2132,8 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="13"/>
+    <row r="15" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
@@ -2145,8 +2148,8 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="13"/>
+    <row r="16" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2161,8 +2164,8 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="13"/>
+    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
@@ -2177,8 +2180,8 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="12"/>
+    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2196,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>79</v>
       </c>
@@ -2213,8 +2216,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="13"/>
+    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
       <c r="C20" s="2" t="s">
         <v>80</v>
       </c>
@@ -2231,8 +2234,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="13"/>
+    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>81</v>
       </c>
@@ -2249,8 +2252,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="13"/>
+    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
@@ -2267,8 +2270,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="13"/>
+    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
       <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
@@ -2283,8 +2286,8 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="13"/>
+    <row r="24" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
@@ -2299,8 +2302,8 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="13"/>
+    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2315,8 +2318,8 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="12"/>
+    <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
@@ -2331,7 +2334,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>19</v>
       </c>
@@ -2351,8 +2354,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="13"/>
+    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
       <c r="C28" s="2" t="s">
         <v>81</v>
       </c>
@@ -2369,8 +2372,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="13"/>
+    <row r="29" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
         <v>80</v>
       </c>
@@ -2387,8 +2390,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="13"/>
+    <row r="30" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
@@ -2405,8 +2408,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="13"/>
+    <row r="31" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
       <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
@@ -2421,8 +2424,8 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="13"/>
+    <row r="32" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
         <v>24</v>
       </c>
@@ -2437,8 +2440,8 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="13"/>
+    <row r="33" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2453,8 +2456,8 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="13"/>
+    <row r="34" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
         <v>27</v>
       </c>
@@ -2469,8 +2472,8 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="13"/>
+    <row r="35" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
       <c r="C35" s="1" t="s">
         <v>111</v>
       </c>
@@ -2483,8 +2486,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="13"/>
+    <row r="36" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
@@ -2499,8 +2502,8 @@
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="13"/>
+    <row r="37" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
       <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
@@ -2515,8 +2518,8 @@
       </c>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="12"/>
+    <row r="38" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="13"/>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
@@ -2531,7 +2534,7 @@
       </c>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>99</v>
       </c>
@@ -2551,8 +2554,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="13"/>
+    <row r="40" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
       <c r="C40" s="2" t="s">
         <v>105</v>
       </c>
@@ -2569,8 +2572,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="13"/>
+    <row r="41" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
         <v>81</v>
       </c>
@@ -2587,8 +2590,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="13"/>
+    <row r="42" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
       <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
@@ -2603,8 +2606,8 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="13"/>
+    <row r="43" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>54</v>
       </c>
@@ -2619,8 +2622,8 @@
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="13"/>
+    <row r="44" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
         <v>29</v>
       </c>
@@ -2635,8 +2638,8 @@
       </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="13"/>
+    <row r="45" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
       <c r="C45" s="1" t="s">
         <v>30</v>
       </c>
@@ -2651,8 +2654,8 @@
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="13"/>
+    <row r="46" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
         <v>31</v>
       </c>
@@ -2667,8 +2670,8 @@
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="13"/>
+    <row r="47" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
       <c r="C47" s="2" t="s">
         <v>21</v>
       </c>
@@ -2681,8 +2684,8 @@
       <c r="F47" s="1"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="13"/>
+    <row r="48" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
       <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
@@ -2697,8 +2700,8 @@
       </c>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="13"/>
+    <row r="49" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="12"/>
       <c r="C49" s="2" t="s">
         <v>44</v>
       </c>
@@ -2713,8 +2716,8 @@
       </c>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="12"/>
+    <row r="50" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="13"/>
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
@@ -2729,7 +2732,7 @@
       </c>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
         <v>20</v>
       </c>
@@ -2749,8 +2752,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="13"/>
+    <row r="52" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="12"/>
       <c r="C52" s="2" t="s">
         <v>21</v>
       </c>
@@ -2767,8 +2770,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="13"/>
+    <row r="53" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
       <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
@@ -2783,8 +2786,8 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="13"/>
+    <row r="54" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
       <c r="C54" s="3" t="s">
         <v>97</v>
       </c>
@@ -2799,8 +2802,8 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="13"/>
+    <row r="55" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
       <c r="C55" s="3" t="s">
         <v>47</v>
       </c>
@@ -2815,8 +2818,8 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="13"/>
+    <row r="56" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
       <c r="C56" s="1" t="s">
         <v>94</v>
       </c>
@@ -2831,8 +2834,8 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="13"/>
+    <row r="57" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
       <c r="C57" s="1" t="s">
         <v>93</v>
       </c>
@@ -2847,8 +2850,8 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="13"/>
+    <row r="58" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="12"/>
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
@@ -2863,8 +2866,8 @@
       </c>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="13"/>
+    <row r="59" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="12"/>
       <c r="C59" s="2" t="s">
         <v>44</v>
       </c>
@@ -2879,8 +2882,8 @@
       </c>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="12"/>
+    <row r="60" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="13"/>
       <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
@@ -2895,7 +2898,7 @@
       </c>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
         <v>100</v>
       </c>
@@ -2915,8 +2918,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="13"/>
+    <row r="62" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="12"/>
       <c r="C62" s="2" t="s">
         <v>101</v>
       </c>
@@ -2933,8 +2936,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="13"/>
+    <row r="63" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="12"/>
       <c r="C63" s="1" t="s">
         <v>21</v>
       </c>
@@ -2951,8 +2954,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="13"/>
+    <row r="64" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="12"/>
       <c r="C64" s="1" t="s">
         <v>28</v>
       </c>
@@ -2967,8 +2970,8 @@
       </c>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="13"/>
+    <row r="65" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="12"/>
       <c r="C65" s="1" t="s">
         <v>103</v>
       </c>
@@ -2981,8 +2984,8 @@
       <c r="F65" s="1"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="13"/>
+    <row r="66" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="12"/>
       <c r="C66" s="1" t="s">
         <v>110</v>
       </c>
@@ -2995,8 +2998,8 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="13"/>
+    <row r="67" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="12"/>
       <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
@@ -3011,8 +3014,8 @@
       </c>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="13"/>
+    <row r="68" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="12"/>
       <c r="C68" s="2" t="s">
         <v>44</v>
       </c>
@@ -3027,8 +3030,8 @@
       </c>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="12"/>
+    <row r="69" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="13"/>
       <c r="C69" s="2" t="s">
         <v>7</v>
       </c>
@@ -3043,7 +3046,7 @@
       </c>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
         <v>102</v>
       </c>
@@ -3063,8 +3066,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="13"/>
+    <row r="71" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="12"/>
       <c r="C71" s="2" t="s">
         <v>103</v>
       </c>
@@ -3081,8 +3084,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="13"/>
+    <row r="72" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="12"/>
       <c r="C72" s="1" t="s">
         <v>22</v>
       </c>
@@ -3097,8 +3100,8 @@
       </c>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="13"/>
+    <row r="73" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="12"/>
       <c r="C73" s="1" t="s">
         <v>33</v>
       </c>
@@ -3113,8 +3116,8 @@
       </c>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="13"/>
+    <row r="74" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="12"/>
       <c r="C74" s="1" t="s">
         <v>71</v>
       </c>
@@ -3127,8 +3130,8 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="13"/>
+    <row r="75" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="12"/>
       <c r="C75" s="1" t="s">
         <v>72</v>
       </c>
@@ -3143,8 +3146,8 @@
       </c>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="13"/>
+    <row r="76" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="12"/>
       <c r="C76" s="1" t="s">
         <v>34</v>
       </c>
@@ -3157,8 +3160,8 @@
       </c>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="13"/>
+    <row r="77" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="12"/>
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3171,8 +3174,8 @@
       </c>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="13"/>
+    <row r="78" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="12"/>
       <c r="C78" s="1" t="s">
         <v>30</v>
       </c>
@@ -3187,8 +3190,8 @@
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="13"/>
+    <row r="79" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="12"/>
       <c r="C79" s="1" t="s">
         <v>31</v>
       </c>
@@ -3203,8 +3206,8 @@
       </c>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="13"/>
+    <row r="80" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="12"/>
       <c r="C80" s="2" t="s">
         <v>6</v>
       </c>
@@ -3219,8 +3222,8 @@
       </c>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="13"/>
+    <row r="81" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="12"/>
       <c r="C81" s="2" t="s">
         <v>44</v>
       </c>
@@ -3235,8 +3238,8 @@
       </c>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="12"/>
+    <row r="82" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="13"/>
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
@@ -3251,7 +3254,7 @@
       </c>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="11" t="s">
         <v>95</v>
       </c>
@@ -3271,8 +3274,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="13"/>
+    <row r="84" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="12"/>
       <c r="C84" s="2" t="s">
         <v>96</v>
       </c>
@@ -3289,8 +3292,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="13"/>
+    <row r="85" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="12"/>
       <c r="C85" s="3" t="s">
         <v>106</v>
       </c>
@@ -3303,8 +3306,8 @@
       <c r="F85" s="1"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="13"/>
+    <row r="86" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="12"/>
       <c r="C86" s="3" t="s">
         <v>108</v>
       </c>
@@ -3316,8 +3319,8 @@
       </c>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="13"/>
+    <row r="87" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="12"/>
       <c r="C87" s="3" t="s">
         <v>36</v>
       </c>
@@ -3332,8 +3335,8 @@
       </c>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="13"/>
+    <row r="88" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="12"/>
       <c r="C88" s="1" t="s">
         <v>30</v>
       </c>
@@ -3348,8 +3351,8 @@
       </c>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="13"/>
+    <row r="89" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="12"/>
       <c r="C89" s="1" t="s">
         <v>31</v>
       </c>
@@ -3364,8 +3367,8 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="13"/>
+    <row r="90" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="12"/>
       <c r="C90" s="2" t="s">
         <v>6</v>
       </c>
@@ -3380,8 +3383,8 @@
       </c>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="13"/>
+    <row r="91" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="12"/>
       <c r="C91" s="2" t="s">
         <v>44</v>
       </c>
@@ -3396,8 +3399,8 @@
       </c>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="12"/>
+    <row r="92" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="13"/>
       <c r="C92" s="2" t="s">
         <v>7</v>
       </c>
@@ -3412,7 +3415,7 @@
       </c>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="11" t="s">
         <v>112</v>
       </c>
@@ -3432,8 +3435,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B94" s="13"/>
+    <row r="94" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="12"/>
       <c r="C94" s="2" t="s">
         <v>113</v>
       </c>
@@ -3450,8 +3453,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="13"/>
+    <row r="95" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="12"/>
       <c r="C95" s="1" t="s">
         <v>81</v>
       </c>
@@ -3464,8 +3467,8 @@
       <c r="F95" s="1"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="13"/>
+    <row r="96" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="12"/>
       <c r="C96" s="1" t="s">
         <v>115</v>
       </c>
@@ -3478,8 +3481,8 @@
       <c r="F96" s="1"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="13"/>
+    <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="12"/>
       <c r="C97" s="1" t="s">
         <v>114</v>
       </c>
@@ -3492,8 +3495,8 @@
       <c r="F97" s="1"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="13"/>
+    <row r="98" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="12"/>
       <c r="C98" s="3" t="s">
         <v>23</v>
       </c>
@@ -3510,8 +3513,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="13"/>
+    <row r="99" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="12"/>
       <c r="C99" s="3" t="s">
         <v>47</v>
       </c>
@@ -3526,8 +3529,8 @@
       </c>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B100" s="13"/>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="12"/>
       <c r="C100" s="1" t="s">
         <v>54</v>
       </c>
@@ -3542,8 +3545,8 @@
       </c>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="13"/>
+    <row r="101" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="12"/>
       <c r="C101" s="1" t="s">
         <v>30</v>
       </c>
@@ -3558,8 +3561,8 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="13"/>
+    <row r="102" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="12"/>
       <c r="C102" s="1" t="s">
         <v>31</v>
       </c>
@@ -3574,8 +3577,8 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="13"/>
+    <row r="103" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="12"/>
       <c r="C103" s="2" t="s">
         <v>6</v>
       </c>
@@ -3590,8 +3593,8 @@
       </c>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="13"/>
+    <row r="104" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="12"/>
       <c r="C104" s="2" t="s">
         <v>44</v>
       </c>
@@ -3606,8 +3609,8 @@
       </c>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="12"/>
+    <row r="105" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="13"/>
       <c r="C105" s="2" t="s">
         <v>7</v>
       </c>
@@ -3624,6 +3627,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B61:B69"/>
     <mergeCell ref="B70:B82"/>
     <mergeCell ref="B83:B92"/>
@@ -3634,12 +3643,6 @@
     <mergeCell ref="B27:B38"/>
     <mergeCell ref="B39:B50"/>
     <mergeCell ref="B51:B60"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3648,23 +3651,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.19921875" customWidth="1"/>
-    <col min="2" max="2" width="20.8984375" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="58.5" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" customWidth="1"/>
-    <col min="5" max="5" width="22.19921875" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>152</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
@@ -3696,7 +3699,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>142</v>
@@ -3707,7 +3710,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>150</v>
       </c>
@@ -3720,7 +3723,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>86</v>
@@ -3733,7 +3736,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>161</v>
@@ -3746,7 +3749,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>151</v>
       </c>
@@ -3759,7 +3762,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>124</v>
@@ -3770,7 +3773,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>127</v>
@@ -3785,7 +3788,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>117</v>
@@ -3800,7 +3803,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>154</v>
       </c>
@@ -3815,7 +3818,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>143</v>
@@ -3828,7 +3831,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>157</v>
@@ -3854,21 +3857,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>119</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>155</v>
       </c>
@@ -3896,7 +3899,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>131</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>129</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -3938,7 +3941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>121</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>123</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>126</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>116</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>176</v>
       </c>
@@ -4008,7 +4011,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>166</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>167</v>
       </c>
